--- a/data/dataA/人口规模.xlsx
+++ b/data/dataA/人口规模.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCAS\freshman\秋季课程\数据挖掘\大作业\fighting\CourseDM_Project\data\dataA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47363BB-367B-4247-98A6-CC222C730555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="11655"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,14 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,354 +173,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -556,326 +235,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1133,41 +524,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J719"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.8833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.9140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1180,11 +571,11 @@
       <c r="D2">
         <v>268</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1197,11 +588,11 @@
       <c r="D3">
         <v>268</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1214,11 +605,11 @@
       <c r="D4">
         <v>267</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1231,11 +622,11 @@
       <c r="D5">
         <v>266</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1248,11 +639,11 @@
       <c r="D6">
         <v>265</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1265,11 +656,11 @@
       <c r="D7">
         <v>264</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1282,11 +673,11 @@
       <c r="D8">
         <v>264</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1299,11 +690,11 @@
       <c r="D9">
         <v>262</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1316,11 +707,11 @@
       <c r="D10">
         <v>261</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1333,11 +724,11 @@
       <c r="D11">
         <v>261</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1350,11 +741,11 @@
       <c r="D12">
         <v>260</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1367,11 +758,11 @@
       <c r="D13">
         <v>259</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1384,11 +775,11 @@
       <c r="D14">
         <v>259</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1401,11 +792,11 @@
       <c r="D15">
         <v>258</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1418,11 +809,11 @@
       <c r="D16">
         <v>258</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1435,11 +826,11 @@
       <c r="D17">
         <v>258</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1452,11 +843,11 @@
       <c r="D18">
         <v>271</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1469,11 +860,11 @@
       <c r="D19">
         <v>271</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1487,7 +878,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +892,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +906,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +920,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +934,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +948,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +962,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1585,7 +976,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +990,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1004,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1032,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1046,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1060,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1074,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1088,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1102,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1116,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1130,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1144,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1158,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1186,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1200,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +1214,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1228,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1242,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1865,7 +1256,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1270,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1284,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1907,7 +1298,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1312,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1326,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +1340,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1354,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1368,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +1382,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +1396,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +1410,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +1424,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +1438,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +1452,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +1466,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +1480,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +1494,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +1522,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +1536,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +1550,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +1564,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +1578,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +1592,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +1606,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2229,7 +1620,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +1634,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2257,7 +1648,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +1662,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +1676,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +1690,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2313,7 +1704,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2327,7 +1718,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2355,7 +1746,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2369,7 +1760,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2383,7 +1774,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +1788,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2411,7 +1802,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +1816,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +1830,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +1844,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2467,7 +1858,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2481,7 +1872,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +1886,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2509,7 +1900,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +1914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2537,7 +1928,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2551,7 +1942,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2565,7 +1956,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +1970,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +1984,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +1998,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2621,7 +2012,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2635,7 +2026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -2649,7 +2040,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -2663,7 +2054,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -2677,7 +2068,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2691,7 +2082,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2096,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2110,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2733,7 +2124,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -2747,7 +2138,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2761,7 +2152,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2775,7 +2166,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2180,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -2803,7 +2194,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -2817,7 +2208,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2222,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -2845,7 +2236,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2859,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2887,7 +2278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2901,7 +2292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2915,7 +2306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -2929,7 +2320,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -2943,7 +2334,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +2348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -2971,7 +2362,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2985,7 +2376,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -2999,7 +2390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +2404,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +2418,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3041,7 +2432,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +2446,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -3069,7 +2460,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -3083,7 +2474,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -3097,7 +2488,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -3111,7 +2502,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +2516,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +2530,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -3153,7 +2544,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3167,7 +2558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3181,7 +2572,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3195,7 +2586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3209,7 +2600,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3223,7 +2614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3237,7 +2628,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -3251,7 +2642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3265,7 +2656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3279,7 +2670,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3293,7 +2684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3307,7 +2698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +2712,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3335,7 +2726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3349,7 +2740,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -3363,7 +2754,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3377,7 +2768,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -3391,7 +2782,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +2796,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -3419,7 +2810,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -3433,7 +2824,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +2838,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -3461,7 +2852,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -3475,7 +2866,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -3489,7 +2880,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -3503,7 +2894,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -3517,7 +2908,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +2922,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +2936,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +2950,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -3573,7 +2964,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -3587,7 +2978,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -3601,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3615,7 +3006,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3629,7 +3020,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -3643,7 +3034,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -3657,7 +3048,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -3671,7 +3062,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3076,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -3699,7 +3090,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3713,7 +3104,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3118,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3132,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -3755,7 +3146,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -3769,7 +3160,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -3783,7 +3174,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -3797,7 +3188,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3202,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3825,7 +3216,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -3839,7 +3230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -3853,7 +3244,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3867,7 +3258,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -3881,7 +3272,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="192" ht="14.25" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -3895,7 +3286,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="193" ht="14.25" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -3909,7 +3300,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="194" ht="14.25" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +3314,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="195" ht="14.25" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -3937,7 +3328,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -3951,7 +3342,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" ht="14.25" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -3965,7 +3356,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="198" ht="14.25" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +3370,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="199" ht="14.25" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +3384,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="200" ht="14.25" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -4007,7 +3398,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -4021,7 +3412,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -4035,7 +3426,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="203" ht="14.25" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -4049,7 +3440,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" ht="14.25" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -4063,7 +3454,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="205" ht="14.25" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -4077,7 +3468,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="206" ht="14.25" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4091,7 +3482,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="207" ht="14.25" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -4105,7 +3496,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="208" ht="14.25" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -4119,7 +3510,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="209" ht="14.25" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -4133,7 +3524,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="210" ht="14.25" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -4147,7 +3538,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +3552,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="212" ht="14.25" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -4175,7 +3566,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="213" ht="14.25" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -4189,7 +3580,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="214" ht="14.25" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -4203,7 +3594,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="215" ht="14.25" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -4217,7 +3608,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="216" ht="14.25" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4231,7 +3622,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="217" ht="14.25" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -4245,7 +3636,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="218" ht="14.25" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4259,7 +3650,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="219" ht="14.25" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -4273,7 +3664,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="220" ht="14.25" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -4287,7 +3678,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" ht="14.25" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +3692,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="222" ht="14.25" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -4315,7 +3706,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" ht="14.25" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -4329,7 +3720,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="224" ht="14.25" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +3732,7 @@
       </c>
       <c r="D224"/>
     </row>
-    <row r="225" ht="14.25" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -4355,7 +3746,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="226" ht="14.25" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -4369,7 +3760,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="227" ht="14.25" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -4383,7 +3774,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="228" ht="14.25" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -4397,7 +3788,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="229" ht="14.25" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -4411,7 +3802,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="230" ht="14.25" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -4425,7 +3816,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="231" ht="14.25" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -4439,7 +3830,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="232" ht="14.25" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -4453,7 +3844,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="233" ht="14.25" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -4467,7 +3858,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="234" ht="14.25" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +3872,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="235" ht="14.25" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -4495,7 +3886,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="236" ht="14.25" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -4509,7 +3900,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="237" ht="14.25" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -4523,7 +3914,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="238" ht="14.25" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -4537,7 +3928,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="239" ht="14.25" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -4551,7 +3942,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="240" ht="14.25" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -4565,7 +3956,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="241" ht="14.25" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -4579,7 +3970,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="242" ht="14.25" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -4593,7 +3984,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="243" ht="14.25" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -4607,7 +3998,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="244" ht="14.25" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -4621,7 +4012,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="245" ht="14.25" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -4635,7 +4026,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="246" ht="14.25" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -4649,7 +4040,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="247" ht="14.25" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -4663,7 +4054,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="248" ht="14.25" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +4068,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="249" ht="14.25" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -4691,7 +4082,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="250" ht="14.25" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -4705,7 +4096,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="251" ht="14.25" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -4719,7 +4110,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="252" ht="14.25" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -4733,7 +4124,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="253" ht="14.25" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -4747,7 +4138,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="254" ht="14.25" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4152,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="255" ht="14.25" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -4775,7 +4166,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="256" ht="14.25" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -4789,7 +4180,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="257" ht="14.25" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -4803,7 +4194,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="258" ht="14.25" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -4817,7 +4208,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="259" ht="14.25" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>18</v>
       </c>
@@ -4831,7 +4222,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="260" ht="14.25" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>18</v>
       </c>
@@ -4845,7 +4236,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="261" ht="14.25" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -4859,7 +4250,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" ht="14.25" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -4873,7 +4264,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" ht="14.25" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -4887,7 +4278,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264" ht="14.25" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +4292,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" ht="14.25" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -4915,7 +4306,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266" ht="14.25" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>19</v>
       </c>
@@ -4929,7 +4320,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="267" ht="14.25" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -4943,7 +4334,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="268" ht="14.25" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -4957,7 +4348,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="269" ht="14.25" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -4971,7 +4362,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="270" ht="14.25" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -4985,7 +4376,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="271" ht="14.25" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -4999,7 +4390,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="272" ht="14.25" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -5013,7 +4404,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="273" ht="14.25" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5027,7 +4418,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="274" ht="14.25" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -5041,7 +4432,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="275" ht="14.25" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +4446,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="276" ht="14.25" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -5069,7 +4460,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="277" ht="14.25" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -5083,7 +4474,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="278" ht="14.25" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -5097,7 +4488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="279" ht="14.25" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -5111,7 +4502,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="280" ht="14.25" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -5125,7 +4516,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="281" ht="14.25" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -5139,7 +4530,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="282" ht="14.25" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -5153,7 +4544,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="283" ht="14.25" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -5167,7 +4558,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="284" ht="14.25" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5181,7 +4572,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="285" ht="14.25" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -5195,7 +4586,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="286" ht="14.25" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -5209,7 +4600,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="287" ht="14.25" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -5223,7 +4614,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="288" ht="14.25" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -5237,7 +4628,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="289" ht="14.25" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -5251,7 +4642,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="290" ht="14.25" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -5265,7 +4656,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="291" ht="14.25" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -5279,7 +4670,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="292" ht="14.25" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -5293,7 +4684,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="293" ht="14.25" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -5307,7 +4698,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="294" ht="14.25" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -5321,7 +4712,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="295" ht="14.25" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5335,7 +4726,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="296" ht="14.25" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -5349,7 +4740,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="297" ht="14.25" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -5363,7 +4754,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="298" ht="14.25" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -5377,7 +4768,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="299" ht="14.25" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -5391,7 +4782,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="300" ht="14.25" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -5405,7 +4796,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="301" ht="14.25" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -5419,7 +4810,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="302" ht="14.25" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -5433,7 +4824,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="303" ht="14.25" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +4838,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" ht="14.25" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>21</v>
       </c>
@@ -5461,7 +4852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="305" ht="14.25" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -5475,7 +4866,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="306" ht="14.25" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>21</v>
       </c>
@@ -5489,7 +4880,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="307" ht="14.25" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>21</v>
       </c>
@@ -5503,7 +4894,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="308" ht="14.25" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -5517,7 +4908,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" ht="14.25" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>21</v>
       </c>
@@ -5531,7 +4922,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="310" ht="14.25" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>21</v>
       </c>
@@ -5545,7 +4936,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="311" ht="14.25" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>21</v>
       </c>
@@ -5559,7 +4950,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="312" ht="14.25" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>21</v>
       </c>
@@ -5573,7 +4964,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="313" ht="14.25" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -5587,7 +4978,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="314" ht="14.25" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>21</v>
       </c>
@@ -5601,7 +4992,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="315" ht="14.25" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>21</v>
       </c>
@@ -5615,7 +5006,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="316" ht="14.25" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>21</v>
       </c>
@@ -5629,7 +5020,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="317" ht="14.25" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>21</v>
       </c>
@@ -5643,7 +5034,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="318" ht="14.25" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -5657,7 +5048,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="319" ht="14.25" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>22</v>
       </c>
@@ -5671,7 +5062,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="320" ht="14.25" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -5685,7 +5076,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="321" ht="14.25" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>22</v>
       </c>
@@ -5699,7 +5090,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="322" ht="14.25" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>22</v>
       </c>
@@ -5713,7 +5104,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="323" ht="14.25" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>22</v>
       </c>
@@ -5727,7 +5118,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="324" ht="14.25" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>22</v>
       </c>
@@ -5741,7 +5132,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="325" ht="14.25" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -5755,7 +5146,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="326" ht="14.25" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>22</v>
       </c>
@@ -5769,7 +5160,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="327" ht="14.25" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -5783,7 +5174,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>22</v>
       </c>
@@ -5797,7 +5188,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="329" ht="14.25" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>22</v>
       </c>
@@ -5811,7 +5202,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" ht="14.25" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>22</v>
       </c>
@@ -5825,7 +5216,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="331" ht="14.25" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>22</v>
       </c>
@@ -5839,7 +5230,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="332" ht="14.25" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>22</v>
       </c>
@@ -5853,7 +5244,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="333" ht="14.25" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>22</v>
       </c>
@@ -5867,7 +5258,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="334" ht="14.25" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>23</v>
       </c>
@@ -5881,7 +5272,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="335" ht="14.25" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>23</v>
       </c>
@@ -5895,7 +5286,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="336" ht="14.25" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>23</v>
       </c>
@@ -5909,7 +5300,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="337" ht="14.25" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>23</v>
       </c>
@@ -5923,7 +5314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="338" ht="14.25" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -5937,7 +5328,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" ht="14.25" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>23</v>
       </c>
@@ -5951,7 +5342,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="340" ht="14.25" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -5965,7 +5356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" ht="14.25" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -5979,7 +5370,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" ht="14.25" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>23</v>
       </c>
@@ -5993,7 +5384,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" ht="14.25" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>23</v>
       </c>
@@ -6007,7 +5398,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="344" ht="14.25" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -6021,7 +5412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="345" ht="14.25" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>23</v>
       </c>
@@ -6035,7 +5426,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="346" ht="14.25" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>23</v>
       </c>
@@ -6049,7 +5440,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="347" ht="14.25" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -6063,7 +5454,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="348" ht="14.25" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>23</v>
       </c>
@@ -6077,7 +5468,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="349" ht="14.25" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -6091,7 +5482,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="350" ht="14.25" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -6105,7 +5496,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="351" ht="14.25" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -6119,7 +5510,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="352" ht="14.25" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +5524,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="353" ht="14.25" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>24</v>
       </c>
@@ -6147,7 +5538,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="354" ht="14.25" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>24</v>
       </c>
@@ -6161,7 +5552,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="355" ht="14.25" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>24</v>
       </c>
@@ -6175,7 +5566,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="356" ht="14.25" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>24</v>
       </c>
@@ -6189,7 +5580,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="357" ht="14.25" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>24</v>
       </c>
@@ -6203,7 +5594,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="358" ht="14.25" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>24</v>
       </c>
@@ -6217,7 +5608,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="359" ht="14.25" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>24</v>
       </c>
@@ -6231,7 +5622,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="360" ht="14.25" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>24</v>
       </c>
@@ -6245,7 +5636,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="361" ht="14.25" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -6259,7 +5650,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="362" ht="14.25" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>24</v>
       </c>
@@ -6273,7 +5664,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="363" ht="14.25" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>24</v>
       </c>
@@ -6287,7 +5678,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="364" ht="14.25" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -6301,7 +5692,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="365" ht="14.25" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -6315,7 +5706,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="366" ht="14.25" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>25</v>
       </c>
@@ -6329,7 +5720,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="367" ht="14.25" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>25</v>
       </c>
@@ -6343,7 +5734,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="368" ht="14.25" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>25</v>
       </c>
@@ -6357,7 +5748,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="369" ht="14.25" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>25</v>
       </c>
@@ -6371,7 +5762,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="370" ht="14.25" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -6385,7 +5776,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="371" ht="14.25" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>25</v>
       </c>
@@ -6399,7 +5790,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="372" ht="14.25" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>25</v>
       </c>
@@ -6413,7 +5804,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="373" ht="14.25" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>25</v>
       </c>
@@ -6427,7 +5818,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="374" ht="14.25" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>25</v>
       </c>
@@ -6441,7 +5832,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="375" ht="14.25" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>25</v>
       </c>
@@ -6455,7 +5846,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="376" ht="14.25" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6469,7 +5860,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="377" ht="14.25" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>25</v>
       </c>
@@ -6483,7 +5874,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="378" ht="14.25" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>25</v>
       </c>
@@ -6497,7 +5888,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="379" ht="14.25" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>25</v>
       </c>
@@ -6511,7 +5902,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="380" ht="14.25" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -6525,7 +5916,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="381" ht="14.25" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>25</v>
       </c>
@@ -6537,7 +5928,7 @@
       </c>
       <c r="D381"/>
     </row>
-    <row r="382" ht="14.25" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>26</v>
       </c>
@@ -6551,7 +5942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="383" ht="14.25" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>26</v>
       </c>
@@ -6565,7 +5956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="384" ht="14.25" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>26</v>
       </c>
@@ -6579,7 +5970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="385" ht="14.25" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>26</v>
       </c>
@@ -6593,7 +5984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" ht="14.25" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -6607,7 +5998,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="387" ht="14.25" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>26</v>
       </c>
@@ -6621,7 +6012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" ht="14.25" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>26</v>
       </c>
@@ -6635,7 +6026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" ht="14.25" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>26</v>
       </c>
@@ -6649,7 +6040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="390" ht="14.25" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>26</v>
       </c>
@@ -6663,7 +6054,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" ht="14.25" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>26</v>
       </c>
@@ -6677,7 +6068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="392" ht="14.25" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>26</v>
       </c>
@@ -6691,7 +6082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="393" ht="14.25" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>26</v>
       </c>
@@ -6705,7 +6096,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="394" ht="14.25" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>26</v>
       </c>
@@ -6719,7 +6110,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="395" ht="14.25" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>26</v>
       </c>
@@ -6733,7 +6124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="396" ht="14.25" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>26</v>
       </c>
@@ -6747,7 +6138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="397" ht="14.25" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>26</v>
       </c>
@@ -6761,7 +6152,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="398" ht="14.25" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>26</v>
       </c>
@@ -6775,7 +6166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="399" ht="14.25" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>26</v>
       </c>
@@ -6789,7 +6180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="400" ht="14.25" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>26</v>
       </c>
@@ -6803,7 +6194,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="401" ht="14.25" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>26</v>
       </c>
@@ -6817,7 +6208,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="402" ht="14.25" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>26</v>
       </c>
@@ -6831,7 +6222,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="403" ht="14.25" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>27</v>
       </c>
@@ -6843,7 +6234,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="404" ht="14.25" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -6855,7 +6246,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="405" ht="14.25" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>27</v>
       </c>
@@ -6867,7 +6258,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="406" ht="14.25" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>27</v>
       </c>
@@ -6879,7 +6270,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="407" ht="14.25" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -6891,7 +6282,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="408" ht="14.25" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>27</v>
       </c>
@@ -6905,7 +6296,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="409" ht="14.25" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -6919,7 +6310,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="410" ht="14.25" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -6933,7 +6324,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="411" ht="14.25" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>27</v>
       </c>
@@ -6947,7 +6338,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="412" ht="14.25" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -6961,7 +6352,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="413" ht="14.25" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>27</v>
       </c>
@@ -6975,7 +6366,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="414" ht="14.25" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>27</v>
       </c>
@@ -6989,7 +6380,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="415" ht="14.25" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>27</v>
       </c>
@@ -7003,7 +6394,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="416" ht="14.25" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -7017,7 +6408,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="417" ht="14.25" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>27</v>
       </c>
@@ -7031,7 +6422,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="418" ht="14.25" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -7045,7 +6436,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="419" ht="14.25" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>27</v>
       </c>
@@ -7059,7 +6450,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="420" ht="14.25" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -7073,7 +6464,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="421" ht="14.25" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>27</v>
       </c>
@@ -7087,7 +6478,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="422" ht="14.25" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>27</v>
       </c>
@@ -7101,7 +6492,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="423" ht="14.25" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>27</v>
       </c>
@@ -7115,7 +6506,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="424" ht="14.25" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>28</v>
       </c>
@@ -7129,7 +6520,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="425" ht="14.25" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>28</v>
       </c>
@@ -7143,7 +6534,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="426" ht="14.25" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>28</v>
       </c>
@@ -7157,7 +6548,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="427" ht="14.25" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>28</v>
       </c>
@@ -7171,7 +6562,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="428" ht="14.25" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>28</v>
       </c>
@@ -7185,7 +6576,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="429" ht="14.25" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>28</v>
       </c>
@@ -7199,7 +6590,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="430" ht="14.25" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>28</v>
       </c>
@@ -7213,7 +6604,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="431" ht="14.25" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>28</v>
       </c>
@@ -7227,7 +6618,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="432" ht="14.25" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>28</v>
       </c>
@@ -7241,7 +6632,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="433" ht="14.25" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>28</v>
       </c>
@@ -7255,7 +6646,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="434" ht="14.25" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>28</v>
       </c>
@@ -7269,7 +6660,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="435" ht="14.25" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>28</v>
       </c>
@@ -7283,7 +6674,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="436" ht="14.25" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>28</v>
       </c>
@@ -7297,7 +6688,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="437" ht="14.25" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>28</v>
       </c>
@@ -7311,7 +6702,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="438" ht="14.25" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>28</v>
       </c>
@@ -7325,7 +6716,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="439" ht="14.25" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7339,7 +6730,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="440" ht="14.25" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>29</v>
       </c>
@@ -7353,7 +6744,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="441" ht="14.25" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>29</v>
       </c>
@@ -7367,7 +6758,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="442" ht="14.25" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>29</v>
       </c>
@@ -7381,7 +6772,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="443" ht="14.25" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>29</v>
       </c>
@@ -7395,7 +6786,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="444" ht="14.25" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>29</v>
       </c>
@@ -7409,7 +6800,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="445" ht="14.25" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>29</v>
       </c>
@@ -7423,7 +6814,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="446" ht="14.25" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>29</v>
       </c>
@@ -7437,7 +6828,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="447" ht="14.25" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>29</v>
       </c>
@@ -7451,7 +6842,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="448" ht="14.25" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>29</v>
       </c>
@@ -7465,7 +6856,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="449" ht="14.25" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>29</v>
       </c>
@@ -7479,7 +6870,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="450" ht="14.25" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>29</v>
       </c>
@@ -7493,7 +6884,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="451" ht="14.25" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>29</v>
       </c>
@@ -7507,7 +6898,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="452" ht="14.25" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>29</v>
       </c>
@@ -7521,7 +6912,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="453" ht="14.25" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>29</v>
       </c>
@@ -7535,7 +6926,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="454" ht="14.25" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +6940,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="455" ht="14.25" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>29</v>
       </c>
@@ -7561,7 +6952,7 @@
       </c>
       <c r="D455"/>
     </row>
-    <row r="456" ht="14.25" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>30</v>
       </c>
@@ -7575,7 +6966,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="457" ht="14.25" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>30</v>
       </c>
@@ -7589,7 +6980,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="458" ht="14.25" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -7603,7 +6994,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="459" ht="14.25" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>30</v>
       </c>
@@ -7617,7 +7008,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="460" ht="14.25" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>30</v>
       </c>
@@ -7631,7 +7022,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="461" ht="14.25" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>30</v>
       </c>
@@ -7645,7 +7036,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="462" ht="14.25" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>30</v>
       </c>
@@ -7659,7 +7050,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="463" ht="14.25" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>30</v>
       </c>
@@ -7673,7 +7064,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="464" ht="14.25" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>30</v>
       </c>
@@ -7687,7 +7078,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="465" ht="14.25" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>30</v>
       </c>
@@ -7701,7 +7092,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="466" ht="14.25" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>30</v>
       </c>
@@ -7715,7 +7106,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="467" ht="14.25" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>30</v>
       </c>
@@ -7729,7 +7120,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="468" ht="14.25" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>30</v>
       </c>
@@ -7743,7 +7134,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="469" ht="14.25" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7148,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="470" ht="14.25" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>30</v>
       </c>
@@ -7771,7 +7162,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="471" ht="14.25" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>30</v>
       </c>
@@ -7785,7 +7176,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="472" ht="14.25" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>30</v>
       </c>
@@ -7799,7 +7190,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="473" ht="14.25" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>30</v>
       </c>
@@ -7813,7 +7204,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="474" ht="14.25" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>30</v>
       </c>
@@ -7827,7 +7218,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="475" ht="14.25" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>30</v>
       </c>
@@ -7841,7 +7232,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="476" ht="14.25" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>30</v>
       </c>
@@ -7855,7 +7246,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="477" ht="14.25" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>31</v>
       </c>
@@ -7869,7 +7260,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="478" ht="14.25" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>31</v>
       </c>
@@ -7883,7 +7274,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="479" ht="14.25" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>31</v>
       </c>
@@ -7897,7 +7288,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="480" ht="14.25" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>31</v>
       </c>
@@ -7911,7 +7302,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="481" ht="14.25" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>31</v>
       </c>
@@ -7925,7 +7316,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="482" ht="14.25" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>31</v>
       </c>
@@ -7939,7 +7330,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="483" ht="14.25" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>31</v>
       </c>
@@ -7953,7 +7344,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="484" ht="14.25" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>31</v>
       </c>
@@ -7967,7 +7358,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="485" ht="14.25" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>31</v>
       </c>
@@ -7981,7 +7372,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="486" ht="14.25" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>31</v>
       </c>
@@ -7995,7 +7386,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="487" ht="14.25" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>31</v>
       </c>
@@ -8009,7 +7400,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="488" ht="14.25" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>31</v>
       </c>
@@ -8023,7 +7414,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="489" ht="14.25" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>31</v>
       </c>
@@ -8037,7 +7428,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="490" ht="14.25" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>31</v>
       </c>
@@ -8051,7 +7442,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="491" ht="14.25" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>31</v>
       </c>
@@ -8065,7 +7456,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="492" ht="14.25" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>31</v>
       </c>
@@ -8079,7 +7470,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="493" ht="14.25" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>31</v>
       </c>
@@ -8093,7 +7484,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="494" ht="14.25" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>31</v>
       </c>
@@ -8107,7 +7498,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="495" ht="14.25" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>31</v>
       </c>
@@ -8121,7 +7512,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="496" ht="14.25" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>31</v>
       </c>
@@ -8135,7 +7526,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="497" ht="14.25" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>31</v>
       </c>
@@ -8149,7 +7540,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="498" ht="14.25" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>32</v>
       </c>
@@ -8163,7 +7554,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="499" ht="14.25" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>32</v>
       </c>
@@ -8177,7 +7568,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="500" ht="14.25" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>32</v>
       </c>
@@ -8191,7 +7582,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="501" ht="14.25" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>32</v>
       </c>
@@ -8205,7 +7596,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="502" ht="14.25" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>32</v>
       </c>
@@ -8219,7 +7610,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="503" ht="14.25" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>32</v>
       </c>
@@ -8233,7 +7624,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="504" ht="14.25" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>32</v>
       </c>
@@ -8247,7 +7638,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="505" ht="14.25" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>32</v>
       </c>
@@ -8261,7 +7652,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="506" ht="14.25" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>32</v>
       </c>
@@ -8275,7 +7666,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="507" ht="14.25" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>32</v>
       </c>
@@ -8289,7 +7680,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="508" ht="14.25" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>32</v>
       </c>
@@ -8303,7 +7694,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="509" ht="14.25" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>32</v>
       </c>
@@ -8317,7 +7708,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="510" ht="14.25" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>32</v>
       </c>
@@ -8331,7 +7722,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="511" ht="14.25" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>32</v>
       </c>
@@ -8345,7 +7736,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="512" ht="14.25" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>32</v>
       </c>
@@ -8359,7 +7750,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="513" ht="14.25" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>32</v>
       </c>
@@ -8373,7 +7764,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="514" ht="14.25" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>33</v>
       </c>
@@ -8387,7 +7778,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="515" ht="14.25" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>33</v>
       </c>
@@ -8401,7 +7792,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="516" ht="14.25" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>33</v>
       </c>
@@ -8415,7 +7806,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="517" ht="14.25" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>33</v>
       </c>
@@ -8429,7 +7820,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="518" ht="14.25" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>33</v>
       </c>
@@ -8443,7 +7834,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="519" ht="14.25" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>33</v>
       </c>
@@ -8457,7 +7848,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="520" ht="14.25" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>33</v>
       </c>
@@ -8471,7 +7862,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="521" ht="14.25" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>33</v>
       </c>
@@ -8485,7 +7876,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="522" ht="14.25" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>33</v>
       </c>
@@ -8499,7 +7890,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="523" ht="14.25" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>33</v>
       </c>
@@ -8513,7 +7904,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="524" ht="14.25" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>33</v>
       </c>
@@ -8527,7 +7918,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="525" ht="14.25" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>33</v>
       </c>
@@ -8541,7 +7932,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="526" ht="14.25" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>33</v>
       </c>
@@ -8555,7 +7946,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="527" ht="14.25" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>33</v>
       </c>
@@ -8569,7 +7960,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="528" ht="14.25" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>33</v>
       </c>
@@ -8583,7 +7974,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="529" ht="14.25" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>33</v>
       </c>
@@ -8595,7 +7986,7 @@
       </c>
       <c r="D529"/>
     </row>
-    <row r="530" ht="14.25" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>34</v>
       </c>
@@ -8609,7 +8000,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="531" ht="14.25" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>34</v>
       </c>
@@ -8623,7 +8014,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="532" ht="14.25" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>34</v>
       </c>
@@ -8637,7 +8028,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="533" ht="14.25" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>34</v>
       </c>
@@ -8651,7 +8042,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="534" ht="14.25" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>34</v>
       </c>
@@ -8665,7 +8056,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" ht="14.25" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>34</v>
       </c>
@@ -8679,7 +8070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="536" ht="14.25" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>34</v>
       </c>
@@ -8693,7 +8084,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="537" ht="14.25" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>34</v>
       </c>
@@ -8707,7 +8098,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="538" ht="14.25" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>34</v>
       </c>
@@ -8721,7 +8112,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="539" ht="14.25" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>34</v>
       </c>
@@ -8735,7 +8126,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" ht="14.25" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>34</v>
       </c>
@@ -8749,7 +8140,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="541" ht="14.25" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>34</v>
       </c>
@@ -8763,7 +8154,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="542" ht="14.25" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>34</v>
       </c>
@@ -8777,7 +8168,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="543" ht="14.25" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>34</v>
       </c>
@@ -8791,7 +8182,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="544" ht="14.25" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>34</v>
       </c>
@@ -8805,7 +8196,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="545" ht="14.25" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>34</v>
       </c>
@@ -8819,7 +8210,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="546" ht="14.25" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>34</v>
       </c>
@@ -8833,7 +8224,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="547" ht="14.25" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>34</v>
       </c>
@@ -8847,7 +8238,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" ht="14.25" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>34</v>
       </c>
@@ -8861,7 +8252,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="549" ht="14.25" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>34</v>
       </c>
@@ -8875,7 +8266,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="550" ht="14.25" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>34</v>
       </c>
@@ -8889,7 +8280,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="551" ht="14.25" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>35</v>
       </c>
@@ -8901,7 +8292,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="552" ht="14.25" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>35</v>
       </c>
@@ -8913,7 +8304,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="553" ht="14.25" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>35</v>
       </c>
@@ -8925,7 +8316,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="554" ht="14.25" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>35</v>
       </c>
@@ -8937,7 +8328,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="555" ht="14.25" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>35</v>
       </c>
@@ -8949,7 +8340,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="556" ht="14.25" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>35</v>
       </c>
@@ -8963,7 +8354,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="557" ht="14.25" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>35</v>
       </c>
@@ -8977,7 +8368,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="558" ht="14.25" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>35</v>
       </c>
@@ -8991,7 +8382,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="559" ht="14.25" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>35</v>
       </c>
@@ -9005,7 +8396,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="560" ht="14.25" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>35</v>
       </c>
@@ -9019,7 +8410,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="561" ht="14.25" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>35</v>
       </c>
@@ -9033,7 +8424,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="562" ht="14.25" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>35</v>
       </c>
@@ -9047,7 +8438,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="563" ht="14.25" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>35</v>
       </c>
@@ -9061,7 +8452,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="564" ht="14.25" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>35</v>
       </c>
@@ -9075,7 +8466,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="565" ht="14.25" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>35</v>
       </c>
@@ -9089,7 +8480,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="566" ht="14.25" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>35</v>
       </c>
@@ -9103,7 +8494,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="567" ht="14.25" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>35</v>
       </c>
@@ -9117,7 +8508,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="568" ht="14.25" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>35</v>
       </c>
@@ -9131,7 +8522,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="569" ht="14.25" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>35</v>
       </c>
@@ -9145,7 +8536,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="570" ht="14.25" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>35</v>
       </c>
@@ -9159,7 +8550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="571" ht="14.25" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>35</v>
       </c>
@@ -9173,7 +8564,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="572" ht="14.25" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>36</v>
       </c>
@@ -9187,7 +8578,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="573" ht="14.25" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>36</v>
       </c>
@@ -9201,7 +8592,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="574" ht="14.25" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>36</v>
       </c>
@@ -9215,7 +8606,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="575" ht="14.25" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>36</v>
       </c>
@@ -9229,7 +8620,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="576" ht="14.25" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>36</v>
       </c>
@@ -9243,7 +8634,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="577" ht="14.25" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>36</v>
       </c>
@@ -9257,7 +8648,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="578" ht="14.25" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>36</v>
       </c>
@@ -9271,7 +8662,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="579" ht="14.25" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>36</v>
       </c>
@@ -9285,7 +8676,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="580" ht="14.25" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>36</v>
       </c>
@@ -9299,7 +8690,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="581" ht="14.25" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>36</v>
       </c>
@@ -9313,7 +8704,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="582" ht="14.25" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>36</v>
       </c>
@@ -9327,7 +8718,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="583" ht="14.25" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>36</v>
       </c>
@@ -9341,7 +8732,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="584" ht="14.25" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>36</v>
       </c>
@@ -9355,7 +8746,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="585" ht="14.25" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>36</v>
       </c>
@@ -9369,7 +8760,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="586" ht="14.25" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>36</v>
       </c>
@@ -9383,7 +8774,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="587" ht="14.25" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>36</v>
       </c>
@@ -9397,7 +8788,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="588" ht="14.25" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>37</v>
       </c>
@@ -9411,7 +8802,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="589" ht="14.25" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>37</v>
       </c>
@@ -9425,7 +8816,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="590" ht="14.25" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>37</v>
       </c>
@@ -9439,7 +8830,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="591" ht="14.25" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>37</v>
       </c>
@@ -9453,7 +8844,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="592" ht="14.25" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>37</v>
       </c>
@@ -9467,7 +8858,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="593" ht="14.25" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>37</v>
       </c>
@@ -9481,7 +8872,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="594" ht="14.25" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>37</v>
       </c>
@@ -9495,7 +8886,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="595" ht="14.25" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>37</v>
       </c>
@@ -9509,7 +8900,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="596" ht="14.25" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>37</v>
       </c>
@@ -9523,7 +8914,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="597" ht="14.25" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>37</v>
       </c>
@@ -9537,7 +8928,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="598" ht="14.25" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>37</v>
       </c>
@@ -9551,7 +8942,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="599" ht="14.25" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>37</v>
       </c>
@@ -9565,7 +8956,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="600" ht="14.25" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>37</v>
       </c>
@@ -9579,7 +8970,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="601" ht="14.25" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>37</v>
       </c>
@@ -9593,7 +8984,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="602" ht="14.25" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>37</v>
       </c>
@@ -9607,7 +8998,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="603" ht="14.25" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>37</v>
       </c>
@@ -9619,7 +9010,7 @@
       </c>
       <c r="D603"/>
     </row>
-    <row r="604" ht="14.25" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>38</v>
       </c>
@@ -9633,7 +9024,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="605" ht="14.25" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>38</v>
       </c>
@@ -9647,7 +9038,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="606" ht="14.25" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>38</v>
       </c>
@@ -9661,7 +9052,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="607" ht="14.25" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>38</v>
       </c>
@@ -9675,7 +9066,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="608" ht="14.25" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>38</v>
       </c>
@@ -9689,7 +9080,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="609" ht="14.25" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>38</v>
       </c>
@@ -9703,7 +9094,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="610" ht="14.25" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>38</v>
       </c>
@@ -9717,7 +9108,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="611" ht="14.25" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>38</v>
       </c>
@@ -9731,7 +9122,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="612" ht="14.25" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>38</v>
       </c>
@@ -9745,7 +9136,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="613" ht="14.25" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>38</v>
       </c>
@@ -9759,7 +9150,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="614" ht="14.25" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>38</v>
       </c>
@@ -9773,7 +9164,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="615" ht="14.25" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>38</v>
       </c>
@@ -9787,7 +9178,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="616" ht="14.25" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>38</v>
       </c>
@@ -9801,7 +9192,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="617" ht="14.25" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>38</v>
       </c>
@@ -9815,7 +9206,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="618" ht="14.25" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>38</v>
       </c>
@@ -9829,7 +9220,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="619" ht="14.25" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>38</v>
       </c>
@@ -9843,7 +9234,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="620" ht="14.25" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>38</v>
       </c>
@@ -9857,7 +9248,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="621" ht="14.25" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>38</v>
       </c>
@@ -9871,7 +9262,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="622" ht="14.25" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>38</v>
       </c>
@@ -9885,7 +9276,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="623" ht="14.25" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>38</v>
       </c>
@@ -9899,7 +9290,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="624" ht="14.25" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>38</v>
       </c>
@@ -9913,7 +9304,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="625" ht="14.25" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>39</v>
       </c>
@@ -9925,7 +9316,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="626" ht="14.25" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>39</v>
       </c>
@@ -9937,7 +9328,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="627" ht="14.25" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>39</v>
       </c>
@@ -9949,7 +9340,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="628" ht="14.25" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>39</v>
       </c>
@@ -9961,7 +9352,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="629" ht="14.25" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>39</v>
       </c>
@@ -9973,7 +9364,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="630" ht="14.25" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>39</v>
       </c>
@@ -9987,7 +9378,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="631" ht="14.25" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>39</v>
       </c>
@@ -10001,7 +9392,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="632" ht="14.25" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>39</v>
       </c>
@@ -10015,7 +9406,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="633" ht="14.25" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>39</v>
       </c>
@@ -10029,7 +9420,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="634" ht="14.25" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>39</v>
       </c>
@@ -10043,7 +9434,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="635" ht="14.25" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>39</v>
       </c>
@@ -10057,7 +9448,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="636" ht="14.25" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>39</v>
       </c>
@@ -10071,7 +9462,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="637" ht="14.25" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>39</v>
       </c>
@@ -10085,7 +9476,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="638" ht="14.25" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>39</v>
       </c>
@@ -10099,7 +9490,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="639" ht="14.25" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>39</v>
       </c>
@@ -10113,7 +9504,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="640" ht="14.25" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>39</v>
       </c>
@@ -10127,7 +9518,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="641" ht="14.25" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>39</v>
       </c>
@@ -10141,7 +9532,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="642" ht="14.25" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>39</v>
       </c>
@@ -10155,7 +9546,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="643" ht="14.25" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>39</v>
       </c>
@@ -10169,7 +9560,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="644" ht="14.25" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>39</v>
       </c>
@@ -10183,7 +9574,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="645" ht="14.25" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>39</v>
       </c>
@@ -10197,7 +9588,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="646" ht="14.25" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -10211,7 +9602,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="647" ht="14.25" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>40</v>
       </c>
@@ -10225,7 +9616,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="648" ht="14.25" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>40</v>
       </c>
@@ -10239,7 +9630,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="649" ht="14.25" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>40</v>
       </c>
@@ -10253,7 +9644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="650" ht="14.25" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>40</v>
       </c>
@@ -10267,7 +9658,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="651" ht="14.25" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>40</v>
       </c>
@@ -10281,7 +9672,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="652" ht="14.25" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>40</v>
       </c>
@@ -10295,7 +9686,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="653" ht="14.25" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>40</v>
       </c>
@@ -10309,7 +9700,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="654" ht="14.25" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>40</v>
       </c>
@@ -10323,7 +9714,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="655" ht="14.25" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>40</v>
       </c>
@@ -10337,7 +9728,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="656" ht="14.25" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>40</v>
       </c>
@@ -10351,7 +9742,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="657" ht="14.25" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>40</v>
       </c>
@@ -10365,7 +9756,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="658" ht="14.25" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>40</v>
       </c>
@@ -10379,7 +9770,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="659" ht="14.25" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>40</v>
       </c>
@@ -10393,7 +9784,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="660" ht="14.25" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>40</v>
       </c>
@@ -10407,7 +9798,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="661" ht="14.25" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>40</v>
       </c>
@@ -10419,7 +9810,7 @@
       </c>
       <c r="D661"/>
     </row>
-    <row r="662" ht="14.25" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>41</v>
       </c>
@@ -10433,7 +9824,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="663" ht="14.25" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>41</v>
       </c>
@@ -10447,7 +9838,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="664" ht="14.25" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>41</v>
       </c>
@@ -10461,7 +9852,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="665" ht="14.25" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>41</v>
       </c>
@@ -10475,7 +9866,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="666" ht="14.25" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>41</v>
       </c>
@@ -10489,7 +9880,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="667" ht="14.25" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>41</v>
       </c>
@@ -10503,7 +9894,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="668" ht="14.25" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>41</v>
       </c>
@@ -10517,7 +9908,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="669" ht="14.25" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>41</v>
       </c>
@@ -10531,7 +9922,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="670" ht="14.25" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>41</v>
       </c>
@@ -10545,7 +9936,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="671" ht="14.25" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>41</v>
       </c>
@@ -10559,7 +9950,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="672" ht="14.25" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>41</v>
       </c>
@@ -10573,7 +9964,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="673" ht="14.25" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>41</v>
       </c>
@@ -10587,7 +9978,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="674" ht="14.25" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>41</v>
       </c>
@@ -10601,7 +9992,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="675" ht="14.25" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>41</v>
       </c>
@@ -10615,7 +10006,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="676" ht="14.25" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>41</v>
       </c>
@@ -10629,7 +10020,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="677" ht="14.25" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>41</v>
       </c>
@@ -10643,7 +10034,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="678" ht="14.25" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>41</v>
       </c>
@@ -10657,7 +10048,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="679" ht="14.25" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>41</v>
       </c>
@@ -10671,7 +10062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="680" ht="14.25" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>41</v>
       </c>
@@ -10685,7 +10076,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="681" ht="14.25" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>41</v>
       </c>
@@ -10699,7 +10090,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="682" ht="14.25" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>41</v>
       </c>
@@ -10713,7 +10104,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="683" ht="14.25" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>42</v>
       </c>
@@ -10725,7 +10116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="684" ht="14.25" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>42</v>
       </c>
@@ -10737,7 +10128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="685" ht="14.25" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>42</v>
       </c>
@@ -10749,7 +10140,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="686" ht="14.25" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>42</v>
       </c>
@@ -10761,7 +10152,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="687" ht="14.25" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>42</v>
       </c>
@@ -10773,7 +10164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="688" ht="14.25" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>42</v>
       </c>
@@ -10787,7 +10178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="689" ht="14.25" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>42</v>
       </c>
@@ -10801,7 +10192,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="690" ht="14.25" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>42</v>
       </c>
@@ -10815,7 +10206,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="691" ht="14.25" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>42</v>
       </c>
@@ -10829,7 +10220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="692" ht="14.25" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>42</v>
       </c>
@@ -10843,7 +10234,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="693" ht="14.25" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>42</v>
       </c>
@@ -10857,7 +10248,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="694" ht="14.25" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>42</v>
       </c>
@@ -10871,7 +10262,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="695" ht="14.25" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>42</v>
       </c>
@@ -10885,7 +10276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="696" ht="14.25" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>42</v>
       </c>
@@ -10899,7 +10290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="697" ht="14.25" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>42</v>
       </c>
@@ -10913,7 +10304,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="698" ht="14.25" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>42</v>
       </c>
@@ -10927,7 +10318,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="699" ht="14.25" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>42</v>
       </c>
@@ -10941,7 +10332,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="700" ht="14.25" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>42</v>
       </c>
@@ -10955,7 +10346,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="701" ht="14.25" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>42</v>
       </c>
@@ -10969,7 +10360,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="702" ht="14.25" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>42</v>
       </c>
@@ -10983,7 +10374,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="703" ht="14.25" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>42</v>
       </c>
@@ -10997,7 +10388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="704" ht="14.25" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>43</v>
       </c>
@@ -11011,7 +10402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="705" ht="14.25" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>43</v>
       </c>
@@ -11025,7 +10416,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="706" ht="14.25" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>43</v>
       </c>
@@ -11039,7 +10430,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="707" ht="14.25" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>43</v>
       </c>
@@ -11053,7 +10444,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="708" ht="14.25" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>43</v>
       </c>
@@ -11067,7 +10458,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="709" ht="14.25" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>43</v>
       </c>
@@ -11081,7 +10472,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="710" ht="14.25" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>43</v>
       </c>
@@ -11095,7 +10486,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="711" ht="14.25" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>43</v>
       </c>
@@ -11109,7 +10500,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="712" ht="14.25" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>43</v>
       </c>
@@ -11123,7 +10514,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="713" ht="14.25" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>43</v>
       </c>
@@ -11137,7 +10528,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="714" ht="14.25" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>43</v>
       </c>
@@ -11151,7 +10542,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="715" ht="14.25" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>43</v>
       </c>
@@ -11165,7 +10556,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="716" ht="14.25" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>43</v>
       </c>
@@ -11179,7 +10570,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="717" ht="14.25" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>43</v>
       </c>
@@ -11193,7 +10584,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="718" ht="14.25" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>43</v>
       </c>
@@ -11207,7 +10598,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="719" ht="14.25" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>43</v>
       </c>
@@ -11220,14 +10611,12 @@
       <c r="D719"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B719">
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A2:D117">
+  <autoFilter ref="B1:B719" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
     <sortCondition ref="A2:A117"/>
     <sortCondition ref="B2:B117"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>